--- a/project-1/test.xlsx
+++ b/project-1/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajwa\Documents\GitHub\612-group\project-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28205EA2-E1D0-4873-8B60-9FB8EDE45B1B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0D798DB-DD68-4D9F-BC8B-32573782E67B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="247">
   <si>
     <t>User_Name</t>
   </si>
@@ -766,6 +766,12 @@
   </si>
   <si>
     <t>Count</t>
+  </si>
+  <si>
+    <t>Rating - Mov Avg</t>
+  </si>
+  <si>
+    <t>Rating - User Avg</t>
   </si>
 </sst>
 </file>
@@ -841,7 +847,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -857,6 +863,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1195,18 +1204,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O242"/>
+  <dimension ref="A1:Q242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5234375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1252,8 +1263,14 @@
       <c r="O1" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P1" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1282,8 +1299,16 @@
         <f>MIN(B2:L2)</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P2">
+        <f>H2-H241</f>
+        <v>0.70833333333333393</v>
+      </c>
+      <c r="Q2">
+        <f>H2-N2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1312,8 +1337,12 @@
         <f t="shared" ref="O3:O66" si="2">MIN(B3:L3)</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q66" si="3">H3-N3</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1342,8 +1371,12 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q4">
+        <f t="shared" si="3"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1372,8 +1405,12 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q5">
+        <f t="shared" si="3"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1402,8 +1439,12 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q6">
+        <f t="shared" si="3"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1432,8 +1473,12 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1462,8 +1507,12 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q8">
+        <f t="shared" si="3"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1492,8 +1541,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q9">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1522,8 +1575,12 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q10">
+        <f t="shared" si="3"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1552,8 +1609,12 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q11">
+        <f t="shared" si="3"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1582,8 +1643,12 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q12">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1612,8 +1677,12 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q13">
+        <f t="shared" si="3"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1642,8 +1711,12 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1672,8 +1745,12 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q15">
+        <f t="shared" si="3"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1702,8 +1779,12 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q16">
+        <f t="shared" si="3"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1732,8 +1813,12 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1762,8 +1847,12 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q18">
+        <f t="shared" si="3"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -1792,8 +1881,12 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q19">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -1822,8 +1915,12 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q20">
+        <f t="shared" si="3"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -1852,8 +1949,12 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -1882,8 +1983,12 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q22">
+        <f t="shared" si="3"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -1912,8 +2017,12 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q23">
+        <f t="shared" si="3"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -1942,8 +2051,12 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q24">
+        <f t="shared" si="3"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -1972,8 +2085,12 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q25">
+        <f t="shared" si="3"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -2002,8 +2119,12 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q26">
+        <f t="shared" si="3"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -2032,8 +2153,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q27">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -2062,8 +2187,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q28">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -2092,8 +2221,12 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q29">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -2122,8 +2255,12 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -2152,8 +2289,12 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q31">
+        <f t="shared" si="3"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -2182,8 +2323,12 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -2214,8 +2359,12 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q33">
+        <f t="shared" si="3"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -2244,8 +2393,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q34">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -2274,8 +2427,12 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q35">
+        <f t="shared" si="3"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -2304,8 +2461,12 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q36">
+        <f t="shared" si="3"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -2334,8 +2495,12 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q37">
+        <f t="shared" si="3"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -2364,8 +2529,12 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q38">
+        <f t="shared" si="3"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -2394,8 +2563,12 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q39">
+        <f t="shared" si="3"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
@@ -2424,8 +2597,12 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q40">
+        <f t="shared" si="3"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -2454,8 +2631,12 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q41">
+        <f t="shared" si="3"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
@@ -2484,8 +2665,12 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q42">
+        <f t="shared" si="3"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
@@ -2514,8 +2699,12 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q43">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
@@ -2548,8 +2737,12 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q44">
+        <f t="shared" si="3"/>
+        <v>-7.333333333333333</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
@@ -2578,8 +2771,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q45">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
@@ -2608,8 +2805,12 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q46">
+        <f t="shared" si="3"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
@@ -2638,8 +2839,12 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q47">
+        <f t="shared" si="3"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
@@ -2668,8 +2873,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q48">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
@@ -2698,8 +2907,12 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q49">
+        <f t="shared" si="3"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
@@ -2728,8 +2941,12 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q50">
+        <f t="shared" si="3"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
@@ -2758,8 +2975,12 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q51">
+        <f t="shared" si="3"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
@@ -2788,8 +3009,12 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q52">
+        <f t="shared" si="3"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
@@ -2818,8 +3043,12 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q53">
+        <f t="shared" si="3"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
@@ -2852,8 +3081,12 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q54">
+        <f t="shared" si="3"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
@@ -2882,8 +3115,12 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q55">
+        <f t="shared" si="3"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
@@ -2912,8 +3149,12 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q56">
+        <f t="shared" si="3"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
@@ -2942,8 +3183,12 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q57">
+        <f t="shared" si="3"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
@@ -2972,8 +3217,12 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q58">
+        <f t="shared" si="3"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
@@ -3002,8 +3251,12 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q59">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
@@ -3032,8 +3285,12 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q60">
+        <f t="shared" si="3"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
@@ -3062,8 +3319,12 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q61">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
@@ -3092,8 +3353,12 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q62">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
@@ -3122,8 +3387,12 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q63">
+        <f t="shared" si="3"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
@@ -3152,8 +3421,12 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q64">
+        <f t="shared" si="3"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
@@ -3182,8 +3455,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q65">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
@@ -3212,8 +3489,12 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q66">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
@@ -3231,19 +3512,23 @@
       </c>
       <c r="L67" s="2"/>
       <c r="M67" s="6">
-        <f t="shared" ref="M67:M130" si="3">COUNT(B67:L67)</f>
+        <f t="shared" ref="M67:M130" si="4">COUNT(B67:L67)</f>
         <v>1</v>
       </c>
       <c r="N67">
-        <f t="shared" ref="N67:N130" si="4">AVERAGE(B67:L67)</f>
+        <f t="shared" ref="N67:N130" si="5">AVERAGE(B67:L67)</f>
         <v>1</v>
       </c>
       <c r="O67">
-        <f t="shared" ref="O67:O130" si="5">MIN(B67:L67)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ref="O67:O130" si="6">MIN(B67:L67)</f>
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" ref="Q67:Q130" si="7">H67-N67</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
@@ -3261,19 +3546,23 @@
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
       <c r="M68" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N68">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="O68">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="O68">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="7"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
@@ -3291,19 +3580,23 @@
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
       <c r="M69" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="O69">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="7"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
@@ -3321,19 +3614,23 @@
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
       <c r="M70" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="O70">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="7"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
@@ -3351,19 +3648,23 @@
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
       <c r="M71" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="O71">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="7"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
@@ -3381,19 +3682,23 @@
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
       <c r="M72" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="O72">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="7"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
@@ -3411,19 +3716,23 @@
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
       <c r="M73" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N73">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="O73">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="O73">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
@@ -3441,19 +3750,23 @@
       </c>
       <c r="L74" s="2"/>
       <c r="M74" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="O74">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
@@ -3471,19 +3784,23 @@
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
       <c r="M75" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N75">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="O75">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="O75">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="7"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
@@ -3501,19 +3818,23 @@
         <v>8</v>
       </c>
       <c r="M76" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="O76">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="7"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
@@ -3531,19 +3852,23 @@
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
       <c r="M77" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="O77">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="7"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
@@ -3561,19 +3886,23 @@
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
       <c r="M78" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="O78">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="7"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
@@ -3591,19 +3920,23 @@
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
       <c r="M79" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N79">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="O79">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="O79">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="7"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
@@ -3621,19 +3954,23 @@
       </c>
       <c r="L80" s="2"/>
       <c r="M80" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="O80">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
@@ -3651,19 +3988,23 @@
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
       <c r="M81" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="O81">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" si="7"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1" t="s">
         <v>81</v>
       </c>
@@ -3681,19 +4022,23 @@
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
       <c r="M82" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N82">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="O82">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="O82">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" si="7"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
@@ -3711,19 +4056,23 @@
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
       <c r="M83" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N83">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="O83">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="O83">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="7"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
@@ -3741,19 +4090,23 @@
       </c>
       <c r="L84" s="2"/>
       <c r="M84" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="O84">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="7"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
@@ -3771,19 +4124,23 @@
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
       <c r="M85" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N85">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="O85">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="O85">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="7"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1" t="s">
         <v>85</v>
       </c>
@@ -3801,19 +4158,23 @@
       </c>
       <c r="L86" s="2"/>
       <c r="M86" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="O86">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1" t="s">
         <v>86</v>
       </c>
@@ -3831,19 +4192,23 @@
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
       <c r="M87" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="O87">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1" t="s">
         <v>87</v>
       </c>
@@ -3861,19 +4226,23 @@
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
       <c r="M88" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="O88">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="7"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1" t="s">
         <v>88</v>
       </c>
@@ -3891,19 +4260,23 @@
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
       <c r="M89" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="O89">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="7"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
@@ -3921,19 +4294,23 @@
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
       <c r="M90" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N90">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="O90">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="O90">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="7"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1" t="s">
         <v>90</v>
       </c>
@@ -3951,19 +4328,23 @@
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
       <c r="M91" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N91">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="O91">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="O91">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="7"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
@@ -3981,19 +4362,23 @@
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
       <c r="M92" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N92">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="O92">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="O92">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="7"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1" t="s">
         <v>92</v>
       </c>
@@ -4011,19 +4396,23 @@
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
       <c r="M93" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N93">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="O93">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="O93">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="7"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1" t="s">
         <v>93</v>
       </c>
@@ -4041,19 +4430,23 @@
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
       <c r="M94" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N94">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="O94">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="O94">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="7"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1" t="s">
         <v>94</v>
       </c>
@@ -4071,19 +4464,23 @@
       </c>
       <c r="L95" s="2"/>
       <c r="M95" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="O95">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="7"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1" t="s">
         <v>95</v>
       </c>
@@ -4109,19 +4506,23 @@
       </c>
       <c r="L96" s="2"/>
       <c r="M96" s="6">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="N96">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
+      <c r="N96">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
       <c r="O96">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1" t="s">
         <v>96</v>
       </c>
@@ -4139,19 +4540,23 @@
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
       <c r="M97" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N97">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="O97">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="O97">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="7"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1" t="s">
         <v>97</v>
       </c>
@@ -4169,19 +4574,23 @@
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
       <c r="M98" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="O98">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="7"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1" t="s">
         <v>98</v>
       </c>
@@ -4199,19 +4608,23 @@
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
       <c r="M99" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N99">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="O99">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="O99">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="7"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1" t="s">
         <v>99</v>
       </c>
@@ -4229,19 +4642,23 @@
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
       <c r="M100" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="O100">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1" t="s">
         <v>100</v>
       </c>
@@ -4259,19 +4676,23 @@
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
       <c r="M101" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="O101">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="7"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1" t="s">
         <v>101</v>
       </c>
@@ -4289,19 +4710,23 @@
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
       <c r="M102" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="O102">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="7"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="1" t="s">
         <v>102</v>
       </c>
@@ -4319,19 +4744,23 @@
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
       <c r="M103" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N103">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="O103">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="O103">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="7"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1" t="s">
         <v>103</v>
       </c>
@@ -4349,19 +4778,23 @@
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
       <c r="M104" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N104">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="O104">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="O104">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="7"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="1" t="s">
         <v>104</v>
       </c>
@@ -4379,19 +4812,23 @@
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
       <c r="M105" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N105">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="O105">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="O105">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="7"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1" t="s">
         <v>105</v>
       </c>
@@ -4409,19 +4846,23 @@
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
       <c r="M106" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="O106">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1" t="s">
         <v>106</v>
       </c>
@@ -4439,19 +4880,23 @@
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
       <c r="M107" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="O107">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="7"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="1" t="s">
         <v>107</v>
       </c>
@@ -4469,19 +4914,23 @@
         <v>8</v>
       </c>
       <c r="M108" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="O108">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="Q108">
+        <f t="shared" si="7"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1" t="s">
         <v>108</v>
       </c>
@@ -4499,19 +4948,23 @@
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
       <c r="M109" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N109">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="O109">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="O109">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="Q109">
+        <f t="shared" si="7"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1" t="s">
         <v>109</v>
       </c>
@@ -4529,19 +4982,23 @@
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
       <c r="M110" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N110">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="O110">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="O110">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="Q110">
+        <f t="shared" si="7"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1" t="s">
         <v>110</v>
       </c>
@@ -4559,19 +5016,23 @@
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
       <c r="M111" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="O111">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="Q111">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1" t="s">
         <v>111</v>
       </c>
@@ -4589,19 +5050,23 @@
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
       <c r="M112" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="O112">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="Q112">
+        <f t="shared" si="7"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1" t="s">
         <v>112</v>
       </c>
@@ -4619,19 +5084,23 @@
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
       <c r="M113" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N113">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="O113">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="Q113">
+        <f t="shared" si="7"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1" t="s">
         <v>113</v>
       </c>
@@ -4649,19 +5118,23 @@
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
       <c r="M114" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="O114">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="Q114">
+        <f t="shared" si="7"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1" t="s">
         <v>114</v>
       </c>
@@ -4679,19 +5152,23 @@
       </c>
       <c r="L115" s="2"/>
       <c r="M115" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="O115">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q115">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="1" t="s">
         <v>115</v>
       </c>
@@ -4709,19 +5186,23 @@
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
       <c r="M116" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N116">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="O116">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="Q116">
+        <f t="shared" si="7"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="1" t="s">
         <v>116</v>
       </c>
@@ -4739,19 +5220,23 @@
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
       <c r="M117" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N117">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="O117">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="O117">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="Q117">
+        <f t="shared" si="7"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="1" t="s">
         <v>117</v>
       </c>
@@ -4769,19 +5254,23 @@
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
       <c r="M118" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N118">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="O118">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="O118">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="Q118">
+        <f t="shared" si="7"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="1" t="s">
         <v>118</v>
       </c>
@@ -4799,19 +5288,23 @@
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
       <c r="M119" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N119">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="O119">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="Q119">
+        <f t="shared" si="7"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="1" t="s">
         <v>119</v>
       </c>
@@ -4829,19 +5322,23 @@
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
       <c r="M120" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N120">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="O120">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="O120">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="Q120">
+        <f t="shared" si="7"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="1" t="s">
         <v>120</v>
       </c>
@@ -4859,19 +5356,23 @@
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
       <c r="M121" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="O121">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="Q121">
+        <f t="shared" si="7"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="1" t="s">
         <v>121</v>
       </c>
@@ -4889,19 +5390,23 @@
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
       <c r="M122" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="O122">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="Q122">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="1" t="s">
         <v>122</v>
       </c>
@@ -4919,19 +5424,23 @@
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
       <c r="M123" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="O123">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q123">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="1" t="s">
         <v>123</v>
       </c>
@@ -4949,19 +5458,23 @@
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
       <c r="M124" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="O124">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="Q124">
+        <f t="shared" si="7"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1" t="s">
         <v>124</v>
       </c>
@@ -4979,19 +5492,23 @@
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
       <c r="M125" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="O125">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q125">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="1" t="s">
         <v>125</v>
       </c>
@@ -5009,19 +5526,23 @@
       </c>
       <c r="L126" s="2"/>
       <c r="M126" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="O126">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="Q126">
+        <f t="shared" si="7"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="1" t="s">
         <v>126</v>
       </c>
@@ -5039,19 +5560,23 @@
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
       <c r="M127" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N127">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="O127">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="O127">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="Q127">
+        <f t="shared" si="7"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="1" t="s">
         <v>127</v>
       </c>
@@ -5069,19 +5594,23 @@
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
       <c r="M128" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N128">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="O128">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="O128">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="Q128">
+        <f t="shared" si="7"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="1" t="s">
         <v>128</v>
       </c>
@@ -5099,19 +5628,23 @@
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
       <c r="M129" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N129">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="O129">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="O129">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="Q129">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="1" t="s">
         <v>129</v>
       </c>
@@ -5129,19 +5662,23 @@
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
       <c r="M130" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N130">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="O130">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="Q130">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="1" t="s">
         <v>130</v>
       </c>
@@ -5159,19 +5696,23 @@
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
       <c r="M131" s="6">
-        <f t="shared" ref="M131:M194" si="6">COUNT(B131:L131)</f>
+        <f t="shared" ref="M131:M194" si="8">COUNT(B131:L131)</f>
         <v>1</v>
       </c>
       <c r="N131">
-        <f t="shared" ref="N131:N194" si="7">AVERAGE(B131:L131)</f>
+        <f t="shared" ref="N131:N194" si="9">AVERAGE(B131:L131)</f>
         <v>2</v>
       </c>
       <c r="O131">
-        <f t="shared" ref="O131:O194" si="8">MIN(B131:L131)</f>
+        <f t="shared" ref="O131:O194" si="10">MIN(B131:L131)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q131">
+        <f t="shared" ref="Q131:Q194" si="11">H131-N131</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="1" t="s">
         <v>131</v>
       </c>
@@ -5189,19 +5730,23 @@
         <v>9</v>
       </c>
       <c r="M132" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N132">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="O132">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q132">
+        <f t="shared" si="11"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="1" t="s">
         <v>132</v>
       </c>
@@ -5219,19 +5764,23 @@
       <c r="K133" s="2"/>
       <c r="L133" s="2"/>
       <c r="M133" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N133">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="O133">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="Q133">
+        <f t="shared" si="11"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="1" t="s">
         <v>133</v>
       </c>
@@ -5249,19 +5798,23 @@
       <c r="K134" s="2"/>
       <c r="L134" s="2"/>
       <c r="M134" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N134">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="O134">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="Q134">
+        <f t="shared" si="11"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="1" t="s">
         <v>134</v>
       </c>
@@ -5279,19 +5832,23 @@
       <c r="K135" s="2"/>
       <c r="L135" s="2"/>
       <c r="M135" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N135">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="O135">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Q135">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="1" t="s">
         <v>135</v>
       </c>
@@ -5309,19 +5866,23 @@
       <c r="K136" s="2"/>
       <c r="L136" s="2"/>
       <c r="M136" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N136">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="O136">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="Q136">
+        <f t="shared" si="11"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="1" t="s">
         <v>136</v>
       </c>
@@ -5339,19 +5900,23 @@
       <c r="K137" s="2"/>
       <c r="L137" s="2"/>
       <c r="M137" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N137">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="O137">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="Q137">
+        <f t="shared" si="11"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="1" t="s">
         <v>137</v>
       </c>
@@ -5369,19 +5934,23 @@
       <c r="K138" s="2"/>
       <c r="L138" s="2"/>
       <c r="M138" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N138">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="O138">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Q138">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="1" t="s">
         <v>138</v>
       </c>
@@ -5399,19 +5968,23 @@
       <c r="K139" s="2"/>
       <c r="L139" s="2"/>
       <c r="M139" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N139">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="O139">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q139">
+        <f t="shared" si="11"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="1" t="s">
         <v>139</v>
       </c>
@@ -5429,19 +6002,23 @@
       <c r="K140" s="2"/>
       <c r="L140" s="2"/>
       <c r="M140" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N140">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="O140">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="Q140">
+        <f t="shared" si="11"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="1" t="s">
         <v>140</v>
       </c>
@@ -5459,19 +6036,23 @@
       <c r="K141" s="2"/>
       <c r="L141" s="2"/>
       <c r="M141" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N141">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="O141">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Q141">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="1" t="s">
         <v>141</v>
       </c>
@@ -5489,19 +6070,23 @@
       <c r="K142" s="2"/>
       <c r="L142" s="2"/>
       <c r="M142" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N142">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="O142">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="Q142">
+        <f t="shared" si="11"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="1" t="s">
         <v>142</v>
       </c>
@@ -5519,19 +6104,23 @@
       <c r="K143" s="2"/>
       <c r="L143" s="2"/>
       <c r="M143" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N143">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="O143">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="Q143">
+        <f t="shared" si="11"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="1" t="s">
         <v>143</v>
       </c>
@@ -5549,19 +6138,23 @@
       <c r="K144" s="2"/>
       <c r="L144" s="2"/>
       <c r="M144" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N144">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="O144">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q144">
+        <f t="shared" si="11"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="1" t="s">
         <v>144</v>
       </c>
@@ -5579,19 +6172,23 @@
       <c r="K145" s="2"/>
       <c r="L145" s="2"/>
       <c r="M145" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N145">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="O145">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q145">
+        <f t="shared" si="11"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="1" t="s">
         <v>145</v>
       </c>
@@ -5609,19 +6206,23 @@
       <c r="K146" s="2"/>
       <c r="L146" s="2"/>
       <c r="M146" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N146">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="O146">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q146">
+        <f t="shared" si="11"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="1" t="s">
         <v>146</v>
       </c>
@@ -5639,19 +6240,23 @@
         <v>5</v>
       </c>
       <c r="M147" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N147">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="O147">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q147">
+        <f t="shared" si="11"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="1" t="s">
         <v>147</v>
       </c>
@@ -5669,19 +6274,23 @@
       <c r="K148" s="2"/>
       <c r="L148" s="2"/>
       <c r="M148" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N148">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="O148">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q148">
+        <f t="shared" si="11"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="1" t="s">
         <v>148</v>
       </c>
@@ -5699,19 +6308,23 @@
       <c r="K149" s="2"/>
       <c r="L149" s="2"/>
       <c r="M149" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N149">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="O149">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="Q149">
+        <f t="shared" si="11"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="1" t="s">
         <v>149</v>
       </c>
@@ -5729,19 +6342,23 @@
       <c r="K150" s="2"/>
       <c r="L150" s="2"/>
       <c r="M150" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N150">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="O150">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="Q150">
+        <f t="shared" si="11"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="1" t="s">
         <v>150</v>
       </c>
@@ -5759,19 +6376,23 @@
       <c r="K151" s="2"/>
       <c r="L151" s="2"/>
       <c r="M151" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N151">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="O151">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="Q151">
+        <f t="shared" si="11"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="1" t="s">
         <v>151</v>
       </c>
@@ -5789,19 +6410,23 @@
       <c r="K152" s="2"/>
       <c r="L152" s="2"/>
       <c r="M152" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N152">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="O152">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="Q152">
+        <f t="shared" si="11"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="1" t="s">
         <v>152</v>
       </c>
@@ -5819,19 +6444,23 @@
       <c r="K153" s="2"/>
       <c r="L153" s="2"/>
       <c r="M153" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N153">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="O153">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q153">
+        <f t="shared" si="11"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="1" t="s">
         <v>153</v>
       </c>
@@ -5849,19 +6478,23 @@
       <c r="K154" s="2"/>
       <c r="L154" s="2"/>
       <c r="M154" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N154">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="O154">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Q154">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="1" t="s">
         <v>154</v>
       </c>
@@ -5879,19 +6512,23 @@
       <c r="K155" s="2"/>
       <c r="L155" s="2"/>
       <c r="M155" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N155">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="O155">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q155">
+        <f t="shared" si="11"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="1" t="s">
         <v>155</v>
       </c>
@@ -5909,19 +6546,23 @@
       </c>
       <c r="L156" s="2"/>
       <c r="M156" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N156">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="O156">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q156">
+        <f t="shared" si="11"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="1" t="s">
         <v>156</v>
       </c>
@@ -5939,19 +6580,23 @@
       <c r="K157" s="2"/>
       <c r="L157" s="2"/>
       <c r="M157" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N157">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="O157">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q157">
+        <f t="shared" si="11"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="1" t="s">
         <v>157</v>
       </c>
@@ -5969,19 +6614,23 @@
       <c r="K158" s="2"/>
       <c r="L158" s="2"/>
       <c r="M158" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N158">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="O158">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q158">
+        <f t="shared" si="11"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="1" t="s">
         <v>158</v>
       </c>
@@ -5999,19 +6648,23 @@
       <c r="K159" s="2"/>
       <c r="L159" s="2"/>
       <c r="M159" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N159">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="O159">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q159">
+        <f t="shared" si="11"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="1" t="s">
         <v>159</v>
       </c>
@@ -6029,19 +6682,23 @@
       <c r="K160" s="2"/>
       <c r="L160" s="2"/>
       <c r="M160" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N160">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="O160">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="Q160">
+        <f t="shared" si="11"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="1" t="s">
         <v>160</v>
       </c>
@@ -6059,19 +6716,23 @@
       <c r="K161" s="2"/>
       <c r="L161" s="2"/>
       <c r="M161" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N161">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="O161">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q161">
+        <f t="shared" si="11"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="1" t="s">
         <v>161</v>
       </c>
@@ -6089,19 +6750,23 @@
       <c r="K162" s="2"/>
       <c r="L162" s="2"/>
       <c r="M162" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N162">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="O162">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q162">
+        <f t="shared" si="11"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="1" t="s">
         <v>162</v>
       </c>
@@ -6119,19 +6784,23 @@
       <c r="K163" s="2"/>
       <c r="L163" s="2"/>
       <c r="M163" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N163">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="O163">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Q163">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="1" t="s">
         <v>163</v>
       </c>
@@ -6149,19 +6818,23 @@
       <c r="K164" s="2"/>
       <c r="L164" s="2"/>
       <c r="M164" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N164">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="O164">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q164">
+        <f t="shared" si="11"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="1" t="s">
         <v>164</v>
       </c>
@@ -6179,19 +6852,23 @@
       </c>
       <c r="L165" s="2"/>
       <c r="M165" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N165">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="O165">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q165">
+        <f t="shared" si="11"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="1" t="s">
         <v>165</v>
       </c>
@@ -6209,19 +6886,23 @@
       <c r="K166" s="2"/>
       <c r="L166" s="2"/>
       <c r="M166" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N166">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="O166">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q166">
+        <f t="shared" si="11"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="1" t="s">
         <v>166</v>
       </c>
@@ -6239,19 +6920,23 @@
       <c r="K167" s="2"/>
       <c r="L167" s="2"/>
       <c r="M167" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N167">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="O167">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Q167">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="1" t="s">
         <v>167</v>
       </c>
@@ -6269,19 +6954,23 @@
       <c r="K168" s="2"/>
       <c r="L168" s="2"/>
       <c r="M168" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N168">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="O168">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="Q168">
+        <f t="shared" si="11"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="1" t="s">
         <v>168</v>
       </c>
@@ -6299,19 +6988,23 @@
       <c r="K169" s="2"/>
       <c r="L169" s="2"/>
       <c r="M169" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N169">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="O169">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="Q169">
+        <f t="shared" si="11"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="1" t="s">
         <v>169</v>
       </c>
@@ -6329,19 +7022,23 @@
       <c r="K170" s="2"/>
       <c r="L170" s="2"/>
       <c r="M170" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N170">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="O170">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q170">
+        <f t="shared" si="11"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="1" t="s">
         <v>170</v>
       </c>
@@ -6359,19 +7056,23 @@
       <c r="K171" s="2"/>
       <c r="L171" s="2"/>
       <c r="M171" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N171">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="O171">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q171">
+        <f t="shared" si="11"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="1" t="s">
         <v>171</v>
       </c>
@@ -6389,19 +7090,23 @@
       <c r="K172" s="2"/>
       <c r="L172" s="2"/>
       <c r="M172" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N172">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="O172">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q172">
+        <f t="shared" si="11"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="173" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="1" t="s">
         <v>172</v>
       </c>
@@ -6419,19 +7124,23 @@
       <c r="K173" s="2"/>
       <c r="L173" s="2"/>
       <c r="M173" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N173">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="O173">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="Q173">
+        <f t="shared" si="11"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="1" t="s">
         <v>173</v>
       </c>
@@ -6449,19 +7158,23 @@
       </c>
       <c r="L174" s="2"/>
       <c r="M174" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N174">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="O174">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="Q174">
+        <f t="shared" si="11"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="1" t="s">
         <v>174</v>
       </c>
@@ -6479,19 +7192,23 @@
       <c r="K175" s="2"/>
       <c r="L175" s="2"/>
       <c r="M175" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N175">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="O175">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q175">
+        <f t="shared" si="11"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="1" t="s">
         <v>175</v>
       </c>
@@ -6509,19 +7226,23 @@
       <c r="K176" s="2"/>
       <c r="L176" s="2"/>
       <c r="M176" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N176">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="O176">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q176">
+        <f t="shared" si="11"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="177" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="1" t="s">
         <v>176</v>
       </c>
@@ -6541,19 +7262,23 @@
       <c r="K177" s="2"/>
       <c r="L177" s="2"/>
       <c r="M177" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="N177">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="O177">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q177">
+        <f t="shared" si="11"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="1" t="s">
         <v>177</v>
       </c>
@@ -6571,19 +7296,23 @@
       <c r="K178" s="2"/>
       <c r="L178" s="2"/>
       <c r="M178" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N178">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="O178">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="Q178">
+        <f t="shared" si="11"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="1" t="s">
         <v>178</v>
       </c>
@@ -6601,19 +7330,23 @@
       <c r="K179" s="2"/>
       <c r="L179" s="2"/>
       <c r="M179" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N179">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="O179">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="Q179">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="1" t="s">
         <v>179</v>
       </c>
@@ -6631,19 +7364,23 @@
       <c r="K180" s="2"/>
       <c r="L180" s="2"/>
       <c r="M180" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N180">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="O180">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="Q180">
+        <f t="shared" si="11"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="1" t="s">
         <v>180</v>
       </c>
@@ -6661,19 +7398,23 @@
       <c r="K181" s="2"/>
       <c r="L181" s="2"/>
       <c r="M181" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N181">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="O181">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="Q181">
+        <f t="shared" si="11"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="1" t="s">
         <v>181</v>
       </c>
@@ -6691,19 +7432,23 @@
       </c>
       <c r="L182" s="2"/>
       <c r="M182" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N182">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="O182">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Q182">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="1" t="s">
         <v>182</v>
       </c>
@@ -6721,19 +7466,23 @@
       <c r="K183" s="2"/>
       <c r="L183" s="2"/>
       <c r="M183" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N183">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="O183">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q183">
+        <f t="shared" si="11"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="1" t="s">
         <v>183</v>
       </c>
@@ -6751,19 +7500,23 @@
       <c r="K184" s="2"/>
       <c r="L184" s="2"/>
       <c r="M184" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N184">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="O184">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="Q184">
+        <f t="shared" si="11"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="1" t="s">
         <v>184</v>
       </c>
@@ -6781,19 +7534,23 @@
       <c r="K185" s="2"/>
       <c r="L185" s="2"/>
       <c r="M185" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N185">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="O185">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q185">
+        <f t="shared" si="11"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="186" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="1" t="s">
         <v>185</v>
       </c>
@@ -6811,19 +7568,23 @@
       <c r="K186" s="2"/>
       <c r="L186" s="2"/>
       <c r="M186" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N186">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="O186">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="Q186">
+        <f t="shared" si="11"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="1" t="s">
         <v>186</v>
       </c>
@@ -6841,19 +7602,23 @@
       <c r="K187" s="2"/>
       <c r="L187" s="2"/>
       <c r="M187" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N187">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="O187">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="Q187">
+        <f t="shared" si="11"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="188" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="1" t="s">
         <v>187</v>
       </c>
@@ -6871,19 +7636,23 @@
       <c r="K188" s="2"/>
       <c r="L188" s="2"/>
       <c r="M188" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N188">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="O188">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q188">
+        <f t="shared" si="11"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="1" t="s">
         <v>188</v>
       </c>
@@ -6901,19 +7670,23 @@
       <c r="K189" s="2"/>
       <c r="L189" s="2"/>
       <c r="M189" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N189">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="O189">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q189">
+        <f t="shared" si="11"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="190" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="1" t="s">
         <v>189</v>
       </c>
@@ -6931,19 +7704,23 @@
       <c r="K190" s="2"/>
       <c r="L190" s="2"/>
       <c r="M190" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N190">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="O190">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q190">
+        <f t="shared" si="11"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="1" t="s">
         <v>190</v>
       </c>
@@ -6961,19 +7738,23 @@
       <c r="K191" s="2"/>
       <c r="L191" s="2"/>
       <c r="M191" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N191">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="O191">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q191">
+        <f t="shared" si="11"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="192" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="1" t="s">
         <v>191</v>
       </c>
@@ -6991,19 +7772,23 @@
       <c r="K192" s="2"/>
       <c r="L192" s="2"/>
       <c r="M192" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N192">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="O192">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="Q192">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="1" t="s">
         <v>192</v>
       </c>
@@ -7021,19 +7806,23 @@
       <c r="K193" s="2"/>
       <c r="L193" s="2"/>
       <c r="M193" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N193">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="O193">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="Q193">
+        <f t="shared" si="11"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="194" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="1" t="s">
         <v>193</v>
       </c>
@@ -7051,19 +7840,23 @@
       <c r="K194" s="2"/>
       <c r="L194" s="2"/>
       <c r="M194" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N194">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="O194">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q194">
+        <f t="shared" si="11"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="195" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="1" t="s">
         <v>194</v>
       </c>
@@ -7081,19 +7874,23 @@
       <c r="K195" s="2"/>
       <c r="L195" s="2"/>
       <c r="M195" s="6">
-        <f t="shared" ref="M195:M241" si="9">COUNT(B195:L195)</f>
+        <f t="shared" ref="M195:M241" si="12">COUNT(B195:L195)</f>
         <v>1</v>
       </c>
       <c r="N195">
-        <f t="shared" ref="N195:N241" si="10">AVERAGE(B195:L195)</f>
+        <f t="shared" ref="N195:N241" si="13">AVERAGE(B195:L195)</f>
         <v>2</v>
       </c>
       <c r="O195">
-        <f t="shared" ref="O195:O241" si="11">MIN(B195:L195)</f>
+        <f t="shared" ref="O195:O241" si="14">MIN(B195:L195)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q195">
+        <f t="shared" ref="Q195:Q241" si="15">H195-N195</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="1" t="s">
         <v>195</v>
       </c>
@@ -7111,19 +7908,23 @@
       <c r="K196" s="2"/>
       <c r="L196" s="2"/>
       <c r="M196" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N196">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="O196">
-        <f t="shared" si="11"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="Q196">
+        <f t="shared" si="15"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="197" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="1" t="s">
         <v>196</v>
       </c>
@@ -7141,19 +7942,23 @@
       <c r="K197" s="2"/>
       <c r="L197" s="2"/>
       <c r="M197" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N197">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="O197">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q197">
+        <f t="shared" si="15"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="198" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="1" t="s">
         <v>197</v>
       </c>
@@ -7171,19 +7976,23 @@
       <c r="K198" s="2"/>
       <c r="L198" s="2"/>
       <c r="M198" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N198">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="O198">
-        <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="Q198">
+        <f t="shared" si="15"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="199" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="1" t="s">
         <v>198</v>
       </c>
@@ -7201,19 +8010,23 @@
       <c r="K199" s="2"/>
       <c r="L199" s="2"/>
       <c r="M199" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N199">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="O199">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q199">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="1" t="s">
         <v>199</v>
       </c>
@@ -7231,19 +8044,23 @@
         <v>9</v>
       </c>
       <c r="M200" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N200">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="O200">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q200">
+        <f t="shared" si="15"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="201" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="1" t="s">
         <v>200</v>
       </c>
@@ -7261,19 +8078,23 @@
       <c r="K201" s="2"/>
       <c r="L201" s="2"/>
       <c r="M201" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N201">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="O201">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q201">
+        <f t="shared" si="15"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="1" t="s">
         <v>201</v>
       </c>
@@ -7291,19 +8112,23 @@
       <c r="K202" s="2"/>
       <c r="L202" s="2"/>
       <c r="M202" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N202">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="O202">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q202">
+        <f t="shared" si="15"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="1" t="s">
         <v>202</v>
       </c>
@@ -7321,19 +8146,23 @@
       <c r="K203" s="2"/>
       <c r="L203" s="2"/>
       <c r="M203" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N203">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="O203">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q203">
+        <f t="shared" si="15"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="204" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="1" t="s">
         <v>203</v>
       </c>
@@ -7351,19 +8180,23 @@
       <c r="K204" s="2"/>
       <c r="L204" s="2"/>
       <c r="M204" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N204">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="O204">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q204">
+        <f t="shared" si="15"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="1" t="s">
         <v>204</v>
       </c>
@@ -7381,19 +8214,23 @@
       <c r="K205" s="2"/>
       <c r="L205" s="2"/>
       <c r="M205" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N205">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="O205">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="Q205">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="1" t="s">
         <v>205</v>
       </c>
@@ -7411,19 +8248,23 @@
       <c r="K206" s="2"/>
       <c r="L206" s="2"/>
       <c r="M206" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N206">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="O206">
-        <f t="shared" si="11"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="Q206">
+        <f t="shared" si="15"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="207" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="1" t="s">
         <v>206</v>
       </c>
@@ -7441,19 +8282,23 @@
       <c r="K207" s="2"/>
       <c r="L207" s="2"/>
       <c r="M207" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N207">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="O207">
-        <f t="shared" si="11"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="Q207">
+        <f t="shared" si="15"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="208" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="1" t="s">
         <v>207</v>
       </c>
@@ -7471,19 +8316,23 @@
       <c r="K208" s="2"/>
       <c r="L208" s="2"/>
       <c r="M208" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N208">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="O208">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q208">
+        <f t="shared" si="15"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="209" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="1" t="s">
         <v>208</v>
       </c>
@@ -7501,19 +8350,23 @@
       <c r="K209" s="2"/>
       <c r="L209" s="2"/>
       <c r="M209" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N209">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="O209">
-        <f t="shared" si="11"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="Q209">
+        <f t="shared" si="15"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="210" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="1" t="s">
         <v>209</v>
       </c>
@@ -7531,19 +8384,23 @@
       <c r="K210" s="2"/>
       <c r="L210" s="2"/>
       <c r="M210" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N210">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="O210">
-        <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="Q210">
+        <f t="shared" si="15"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="211" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="1" t="s">
         <v>210</v>
       </c>
@@ -7561,19 +8418,23 @@
       <c r="K211" s="2"/>
       <c r="L211" s="2"/>
       <c r="M211" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N211">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="O211">
-        <f t="shared" si="11"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="Q211">
+        <f t="shared" si="15"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="212" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="1" t="s">
         <v>211</v>
       </c>
@@ -7591,19 +8452,23 @@
       <c r="K212" s="2"/>
       <c r="L212" s="2"/>
       <c r="M212" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N212">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="O212">
-        <f t="shared" si="11"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="Q212">
+        <f t="shared" si="15"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="213" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="1" t="s">
         <v>212</v>
       </c>
@@ -7621,19 +8486,23 @@
       <c r="K213" s="2"/>
       <c r="L213" s="2"/>
       <c r="M213" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N213">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="O213">
-        <f t="shared" si="11"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="Q213">
+        <f t="shared" si="15"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="214" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="1" t="s">
         <v>213</v>
       </c>
@@ -7651,19 +8520,23 @@
       <c r="K214" s="2"/>
       <c r="L214" s="2"/>
       <c r="M214" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N214">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="O214">
-        <f t="shared" si="11"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="Q214">
+        <f t="shared" si="15"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="215" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="1" t="s">
         <v>214</v>
       </c>
@@ -7681,19 +8554,23 @@
       <c r="K215" s="2"/>
       <c r="L215" s="2"/>
       <c r="M215" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N215">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="O215">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q215">
+        <f t="shared" si="15"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="216" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="1" t="s">
         <v>215</v>
       </c>
@@ -7711,19 +8588,23 @@
       <c r="K216" s="2"/>
       <c r="L216" s="2"/>
       <c r="M216" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N216">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="O216">
-        <f t="shared" si="11"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="Q216">
+        <f t="shared" si="15"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="217" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="1" t="s">
         <v>216</v>
       </c>
@@ -7741,19 +8622,23 @@
       <c r="K217" s="2"/>
       <c r="L217" s="2"/>
       <c r="M217" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N217">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="O217">
-        <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="Q217">
+        <f t="shared" si="15"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="218" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="1" t="s">
         <v>217</v>
       </c>
@@ -7771,19 +8656,23 @@
       <c r="K218" s="2"/>
       <c r="L218" s="2"/>
       <c r="M218" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N218">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="O218">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q218">
+        <f t="shared" si="15"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="219" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="1" t="s">
         <v>218</v>
       </c>
@@ -7801,19 +8690,23 @@
       <c r="K219" s="2"/>
       <c r="L219" s="2"/>
       <c r="M219" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N219">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="O219">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q219">
+        <f t="shared" si="15"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="220" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="1" t="s">
         <v>219</v>
       </c>
@@ -7831,19 +8724,23 @@
       <c r="K220" s="2"/>
       <c r="L220" s="2"/>
       <c r="M220" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N220">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="O220">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q220">
+        <f t="shared" si="15"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="221" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="1" t="s">
         <v>220</v>
       </c>
@@ -7861,19 +8758,23 @@
       <c r="K221" s="2"/>
       <c r="L221" s="2"/>
       <c r="M221" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N221">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="O221">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q221">
+        <f t="shared" si="15"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="222" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="1" t="s">
         <v>221</v>
       </c>
@@ -7891,19 +8792,23 @@
       <c r="K222" s="2"/>
       <c r="L222" s="2"/>
       <c r="M222" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N222">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="O222">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q222">
+        <f t="shared" si="15"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="1" t="s">
         <v>222</v>
       </c>
@@ -7921,19 +8826,23 @@
       <c r="K223" s="2"/>
       <c r="L223" s="2"/>
       <c r="M223" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N223">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="O223">
-        <f t="shared" si="11"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="Q223">
+        <f t="shared" si="15"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="224" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="1" t="s">
         <v>223</v>
       </c>
@@ -7953,19 +8862,23 @@
         <v>7</v>
       </c>
       <c r="M224" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="N224">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7.5</v>
       </c>
       <c r="O224">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q224">
+        <f t="shared" si="15"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="1" t="s">
         <v>224</v>
       </c>
@@ -7983,19 +8896,23 @@
       <c r="K225" s="2"/>
       <c r="L225" s="2"/>
       <c r="M225" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N225">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="O225">
-        <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="Q225">
+        <f t="shared" si="15"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="226" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="1" t="s">
         <v>225</v>
       </c>
@@ -8013,19 +8930,23 @@
       <c r="K226" s="2"/>
       <c r="L226" s="2"/>
       <c r="M226" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N226">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="O226">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q226">
+        <f t="shared" si="15"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="227" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="1" t="s">
         <v>226</v>
       </c>
@@ -8043,19 +8964,23 @@
       <c r="K227" s="2"/>
       <c r="L227" s="2"/>
       <c r="M227" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N227">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="O227">
-        <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="Q227">
+        <f t="shared" si="15"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="228" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="1" t="s">
         <v>227</v>
       </c>
@@ -8073,19 +8998,23 @@
       <c r="K228" s="2"/>
       <c r="L228" s="2"/>
       <c r="M228" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N228">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="O228">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q228">
+        <f t="shared" si="15"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="1" t="s">
         <v>228</v>
       </c>
@@ -8103,19 +9032,23 @@
       <c r="K229" s="2"/>
       <c r="L229" s="2"/>
       <c r="M229" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N229">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="O229">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q229">
+        <f t="shared" si="15"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="1" t="s">
         <v>229</v>
       </c>
@@ -8133,19 +9066,23 @@
       <c r="K230" s="2"/>
       <c r="L230" s="2"/>
       <c r="M230" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N230">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="O230">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q230">
+        <f t="shared" si="15"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="231" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="1" t="s">
         <v>230</v>
       </c>
@@ -8163,19 +9100,23 @@
       <c r="K231" s="2"/>
       <c r="L231" s="2"/>
       <c r="M231" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N231">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="O231">
-        <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="Q231">
+        <f t="shared" si="15"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="232" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="1" t="s">
         <v>231</v>
       </c>
@@ -8193,19 +9134,23 @@
       <c r="K232" s="2"/>
       <c r="L232" s="2"/>
       <c r="M232" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N232">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="O232">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q232">
+        <f t="shared" si="15"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="233" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="1" t="s">
         <v>232</v>
       </c>
@@ -8223,19 +9168,23 @@
       <c r="K233" s="2"/>
       <c r="L233" s="2"/>
       <c r="M233" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N233">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="O233">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q233">
+        <f t="shared" si="15"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="1" t="s">
         <v>233</v>
       </c>
@@ -8253,19 +9202,23 @@
       <c r="K234" s="2"/>
       <c r="L234" s="2"/>
       <c r="M234" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N234">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="O234">
-        <f t="shared" si="11"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="Q234">
+        <f t="shared" si="15"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="235" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="1" t="s">
         <v>234</v>
       </c>
@@ -8283,19 +9236,23 @@
       <c r="K235" s="2"/>
       <c r="L235" s="2"/>
       <c r="M235" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N235">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="O235">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q235">
+        <f t="shared" si="15"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="236" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="1" t="s">
         <v>235</v>
       </c>
@@ -8313,19 +9270,23 @@
       <c r="K236" s="2"/>
       <c r="L236" s="2"/>
       <c r="M236" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N236">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="O236">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q236">
+        <f t="shared" si="15"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="237" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="1" t="s">
         <v>236</v>
       </c>
@@ -8343,19 +9304,23 @@
       <c r="K237" s="2"/>
       <c r="L237" s="2"/>
       <c r="M237" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N237">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="O237">
-        <f t="shared" si="11"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="Q237">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="1" t="s">
         <v>237</v>
       </c>
@@ -8373,19 +9338,23 @@
       <c r="K238" s="2"/>
       <c r="L238" s="2"/>
       <c r="M238" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N238">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="O238">
-        <f t="shared" si="11"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="Q238">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="1" t="s">
         <v>238</v>
       </c>
@@ -8403,19 +9372,23 @@
       <c r="K239" s="2"/>
       <c r="L239" s="2"/>
       <c r="M239" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N239">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="O239">
-        <f t="shared" si="11"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="Q239">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="1" t="s">
         <v>239</v>
       </c>
@@ -8433,19 +9406,23 @@
         <v>5</v>
       </c>
       <c r="M240" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N240">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="O240">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q240">
+        <f t="shared" si="15"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="241" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="4" t="s">
         <v>240</v>
       </c>
@@ -8454,59 +9431,63 @@
         <v>7.708333333333333</v>
       </c>
       <c r="C241">
-        <f t="shared" ref="C241:L241" si="12">AVERAGE(C2:C240)</f>
+        <f t="shared" ref="C241:L241" si="16">AVERAGE(C2:C240)</f>
         <v>8.2799999999999994</v>
       </c>
       <c r="D241">
+        <f t="shared" si="16"/>
+        <v>7.208333333333333</v>
+      </c>
+      <c r="E241">
+        <f t="shared" si="16"/>
+        <v>5.2</v>
+      </c>
+      <c r="F241">
+        <f t="shared" si="16"/>
+        <v>3.56</v>
+      </c>
+      <c r="G241">
+        <f t="shared" si="16"/>
+        <v>5.52</v>
+      </c>
+      <c r="H241">
+        <f t="shared" si="16"/>
+        <v>9.2916666666666661</v>
+      </c>
+      <c r="I241">
+        <f t="shared" si="16"/>
+        <v>8.6315789473684212</v>
+      </c>
+      <c r="J241">
+        <f t="shared" si="16"/>
+        <v>8.25</v>
+      </c>
+      <c r="K241">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="L241">
+        <f t="shared" si="16"/>
+        <v>7.9285714285714288</v>
+      </c>
+      <c r="M241" s="6">
         <f t="shared" si="12"/>
-        <v>7.208333333333333</v>
-      </c>
-      <c r="E241">
-        <f t="shared" si="12"/>
-        <v>5.2</v>
-      </c>
-      <c r="F241">
-        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="N241">
+        <f t="shared" si="13"/>
+        <v>6.9616803372066522</v>
+      </c>
+      <c r="O241">
+        <f t="shared" si="14"/>
         <v>3.56</v>
       </c>
-      <c r="G241">
-        <f t="shared" si="12"/>
-        <v>5.52</v>
-      </c>
-      <c r="H241">
-        <f t="shared" si="12"/>
-        <v>9.2916666666666661</v>
-      </c>
-      <c r="I241">
-        <f t="shared" si="12"/>
-        <v>8.6315789473684212</v>
-      </c>
-      <c r="J241">
-        <f t="shared" si="12"/>
-        <v>8.25</v>
-      </c>
-      <c r="K241">
-        <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="L241">
-        <f t="shared" si="12"/>
-        <v>7.9285714285714288</v>
-      </c>
-      <c r="M241" s="6">
-        <f t="shared" si="9"/>
-        <v>11</v>
-      </c>
-      <c r="N241">
-        <f t="shared" si="10"/>
-        <v>6.9616803372066522</v>
-      </c>
-      <c r="O241">
-        <f t="shared" si="11"/>
-        <v>3.56</v>
-      </c>
-    </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q241">
+        <f t="shared" si="15"/>
+        <v>2.3299863294600138</v>
+      </c>
+    </row>
+    <row r="242" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="3" t="s">
         <v>241</v>
       </c>
@@ -8515,43 +9496,43 @@
         <v>3</v>
       </c>
       <c r="C242">
-        <f t="shared" ref="C242:L242" si="13">MIN(C2:C240)</f>
+        <f t="shared" ref="C242:L242" si="17">MIN(C2:C240)</f>
         <v>3</v>
       </c>
       <c r="D242">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="E242">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="F242">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="G242">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="H242">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="I242">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J242">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="K242">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="L242">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
     </row>
